--- a/dataset/covid_citites_brazil.xlsx
+++ b/dataset/covid_citites_brazil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,16 +393,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>São Paulo, SP</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="4">
@@ -434,11 +434,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="5">
@@ -447,16 +447,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fortaleza, CE</t>
+          <t>Brasília, DF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="6">
@@ -465,16 +465,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brasília, DF</t>
+          <t>Fortaleza, CE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>172</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="7">
@@ -483,16 +483,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="8">
@@ -501,16 +501,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Curitiba, PR</t>
+          <t>Salvador, BA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="9">
@@ -519,16 +519,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Salvador, BA</t>
+          <t>Curitiba, PR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="10">
@@ -537,16 +537,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Recife, PE</t>
+          <t>Manaus, AM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="11">
@@ -555,16 +555,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Manaus, AM</t>
+          <t>Porto Alegre, RS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="12">
@@ -573,16 +573,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="13">
@@ -596,11 +596,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="14">
@@ -614,11 +614,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="15">
@@ -627,16 +627,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Florianópolis, SC</t>
+          <t>Vila Velha, ES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="16">
@@ -645,16 +645,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vitória, ES</t>
+          <t>Florianópolis, SC</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="17">
@@ -668,11 +668,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="18">
@@ -681,16 +681,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vila Velha, ES</t>
+          <t>Vitória, ES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="19">
@@ -699,16 +699,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Niterói, RJ</t>
+          <t>Aracaju, SE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="20">
@@ -717,16 +717,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Braço do Norte, SC</t>
+          <t>Maceió, AL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="21">
@@ -735,16 +735,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Criciúma, SC</t>
+          <t>Niterói, RJ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="22">
@@ -753,7 +753,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Natal, RN</t>
+          <t>Braço do Norte, SC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="23">
@@ -771,16 +771,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maceió, AL</t>
+          <t>Criciúma, SC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="24">
@@ -789,16 +789,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Porto Seguro, BA</t>
+          <t>Natal, RN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>São Luís, MA</t>
+          <t>Boa Vista, RR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="26">
@@ -825,16 +825,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aracaju, SE</t>
+          <t>Feira de Santana, BA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="27">
@@ -843,16 +843,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bagé, RS</t>
+          <t>Juiz de Fora, MG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="28">
@@ -861,16 +861,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Blumenau, SC</t>
+          <t>Porto Seguro, BA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="29">
@@ -879,16 +879,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Itajaí, SC</t>
+          <t>São Luís, MA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="30">
@@ -897,16 +897,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Palmas, TO</t>
+          <t>Teresina, PI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="31">
@@ -915,7 +915,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tubarão, SC</t>
+          <t>Bagé, RS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="32">
@@ -933,16 +933,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aquiraz, CE</t>
+          <t>Blumenau, SC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="33">
@@ -951,16 +951,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Balneário Camboriú, SC</t>
+          <t>Itajaí, SC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="34">
@@ -969,16 +969,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Feira de Santana, BA</t>
+          <t>Nova Lima, MG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="35">
@@ -987,16 +987,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Teresina, PI</t>
+          <t>Palmas, TO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="36">
@@ -1005,16 +1005,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Canoas, RS</t>
+          <t>Tubarão, SC</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="37">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cianorte, PR</t>
+          <t>Aquiraz, CE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="38">
@@ -1041,16 +1041,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cuiabá, MT</t>
+          <t>Balneário Camboriú, SC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="39">
@@ -1059,16 +1059,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Juiz de Fora, MG</t>
+          <t>Uberlândia, MG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="40">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rio Verde, GO</t>
+          <t>Canoas, RS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="41">
@@ -1095,16 +1095,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Belém, PA</t>
+          <t>Cianorte, PR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="42">
@@ -1113,16 +1113,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Foz do Iguaçu, PR</t>
+          <t>Cuiabá, MT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="43">
@@ -1131,16 +1131,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Joinville, SC</t>
+          <t>Rio Verde, GO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="44">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nova Lima, MG</t>
+          <t>Belém, PA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="45">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>São Bernardo do Campo, SP</t>
+          <t>Foz do Iguaçu, PR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="46">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>São Caetano do Sul, SP</t>
+          <t>Joinville, SC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="47">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>São José, SC</t>
+          <t>Parnamirim, RN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="48">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Uberlândia, MG</t>
+          <t>São Bernardo do Campo, SP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="49">
@@ -1239,16 +1239,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bento Gonçalves, RS</t>
+          <t>São Caetano do Sul, SP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="50">
@@ -1257,16 +1257,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Erechim, RS</t>
+          <t>São José, SC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="51">
@@ -1275,16 +1275,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jaboatão dos Guararapes, PE</t>
+          <t>Sobral, CE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="52">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lajeado, RS</t>
+          <t>Anápolis, GO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="53">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lauro de Freitas, BA</t>
+          <t>Bento Gonçalves, RS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="54">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Londrina, PR</t>
+          <t>Erechim, RS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="55">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Parnamirim, RN</t>
+          <t>Jaboatão dos Guararapes, PE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="56">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Petrópolis, RJ</t>
+          <t>Lajeado, RS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="57">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sant'ana do Livramento, RS</t>
+          <t>Lauro de Freitas, BA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="58">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Santo André, SP</t>
+          <t>Linhares, ES</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="59">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>São Gonçalo, RJ</t>
+          <t>Londrina, PR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="60">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sobral, CE</t>
+          <t>Petrópolis, RJ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="61">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Torres, RS</t>
+          <t>Sant'ana do Livramento, RS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="62">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uberaba, MG</t>
+          <t>Santo André, SP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="63">
@@ -1491,16 +1491,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alvorada, RS</t>
+          <t>São Gonçalo, RJ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +1509,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anápolis, GO</t>
+          <t>Torres, RS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="65">
@@ -1527,16 +1527,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aparecida de Goiânia, GO</t>
+          <t>Uberaba, MG</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="66">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Boa Vista, RR</t>
+          <t>Alvorada, RS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="67">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Campo Bom, RS</t>
+          <t>Aparecida de Goiânia, GO</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="68">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Carapicuíba, SP</t>
+          <t>Campo Bom, RS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="69">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Caxias do Sul, RS</t>
+          <t>Carapicuíba, SP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="70">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chapecó, SC</t>
+          <t>Cascavel, PR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="71">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Coronel Fabriciano, MG</t>
+          <t>Caxias do Sul, RS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="72">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cotia, SP</t>
+          <t>Chapecó, SC</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="73">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gravatal, SC</t>
+          <t>Contagem, MG</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="74">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Imbituba, SC</t>
+          <t>Cotia, SP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="75">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ivoti, RS</t>
+          <t>Gravatal, SC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="76">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jaguaruna, SC</t>
+          <t>Imbituba, SC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="77">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jaraguá do Sul, SC</t>
+          <t>Ivoti, RS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="78">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Linhares, ES</t>
+          <t>Jaguaruna, SC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="79">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Olinda, PE</t>
+          <t>Jaraguá do Sul, SC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="80">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Porto Belo, SC</t>
+          <t>João Pessoa, PB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="81">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Porto Velho, RO</t>
+          <t>Juazeiro, BA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="82">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Prado, BA</t>
+          <t>Mariana, MG</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Propriá, SE</t>
+          <t>Olinda, PE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="84">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Rancho Queimado, SC</t>
+          <t>Parintins, AM</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="85">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Santa Maria, RS</t>
+          <t>Porto Belo, SC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="86">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Santana de Parnaíba, SP</t>
+          <t>Porto Velho, RO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="87">
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Barra Mansa, RJ</t>
+          <t>Prado, BA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="88">
@@ -1941,16 +1941,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Barreiras, BA</t>
+          <t>Propriá, SE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="89">
@@ -1959,16 +1959,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Barueri, SP</t>
+          <t>Rancho Queimado, SC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="90">
@@ -1977,16 +1977,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Belo Jardim, PE</t>
+          <t>Santa Maria, RS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="91">
@@ -1995,16 +1995,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Brumado, BA</t>
+          <t>Santana de Parnaíba, SP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="92">
@@ -2013,16 +2013,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cachoeiro de Itapemirim, ES</t>
+          <t>Sete Lagoas, MG</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="93">
@@ -2031,16 +2031,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Camaçari, BA</t>
+          <t>Valparaíso de Goiás, GO</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="94">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Campinas, SP</t>
+          <t>Barra Mansa, RJ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="95">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Campo Largo, PR</t>
+          <t>Barreiras, BA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="96">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Capão da Canoa, RS</t>
+          <t>Barueri, SP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="97">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cariacica, ES</t>
+          <t>Belo Jardim, PE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="98">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Carlos Barbosa, RS</t>
+          <t>Betim, MG</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="99">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Caruaru, PE</t>
+          <t>Bom Despacho, MG</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="100">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cascavel, PR</t>
+          <t>Brumado, BA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="101">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Catalão, GO</t>
+          <t>Cachoeiro de Itapemirim, ES</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="102">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Charqueadas, RS</t>
+          <t>Camaçari, BA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="103">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Colombo, PR</t>
+          <t>Campinas, SP</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="104">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Conceição do Jacuípe, BA</t>
+          <t>Campo Largo, PR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="105">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cruzeiro do Sul, RS</t>
+          <t>Campos Altos, MG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="106">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Divinópolis, MG</t>
+          <t>Capão da Canoa, RS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="107">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dois Irmãos, RS</t>
+          <t>Cariacica, ES</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="108">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Eldorado do Sul, RS</t>
+          <t>Carlos Barbosa, RS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="109">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Estância Velha, RS</t>
+          <t>Caruaru, PE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="110">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Estrela, RS</t>
+          <t>Catalão, GO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="111">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Farroupilha, RS</t>
+          <t>Charqueadas, RS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="112">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ferraz de Vasconcelos, SP</t>
+          <t>Colombo, PR</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="113">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fortim, CE</t>
+          <t>Conceição do Jacuípe, BA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="114">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Gaspar, SC</t>
+          <t>Conde, BA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="115">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Guaíra, PR</t>
+          <t>Coronel Fabriciano, MG</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="116">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Guapimirim, RJ</t>
+          <t>Cruzeiro do Sul, RS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="117">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Guarulhos, SP</t>
+          <t>Divinópolis, MG</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="118">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hortolândia, SP</t>
+          <t>Dois Irmãos, RS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="119">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Içara, SC</t>
+          <t>Eldorado do Sul, RS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="120">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Igaracy, PB</t>
+          <t>Estância Velha, RS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="121">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ipatinga, MG</t>
+          <t>Estrela, RS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="122">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Itabuna, BA</t>
+          <t>Farroupilha, RS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="123">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jaguariúna, SP</t>
+          <t>Ferraz de Vasconcelos, SP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="124">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Jataí, GO</t>
+          <t>Fortim, CE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="125">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Jequié, BA</t>
+          <t>Gaspar, SC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="126">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ji-Paraná, RO</t>
+          <t>Guaíra, PR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="127">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>João Pessoa, PB</t>
+          <t>Guapimirim, RJ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="128">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, CE</t>
+          <t>Guarulhos, SP</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="129">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Juazeiro, BA</t>
+          <t>Hortolândia, SP</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="130">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Macapá, AP</t>
+          <t>Içara, SC</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="131">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Marabá, PA</t>
+          <t>Igaracy, PB</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="132">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Mariana, MG</t>
+          <t>Ipatinga, MG</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="133">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Maringá, PR</t>
+          <t>Itabuna, BA</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="134">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mauá, SP</t>
+          <t>Jaguariúna, SP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="135">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Miguel Pereira, RJ</t>
+          <t>Jataí, GO</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="136">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Mogi das Cruzes, SP</t>
+          <t>Jequié, BA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="137">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Mossoró, RN</t>
+          <t>Ji-Paraná, RO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="138">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Navegantes, SC</t>
+          <t>Juazeiro do Norte, CE</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="139">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nossa Senhora da Glória, SE</t>
+          <t>Lagoa da Prata, MG</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="140">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Osasco, SP</t>
+          <t>Macapá, AP</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="141">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Osório, RS</t>
+          <t>Marabá, PA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="142">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Parintins, AM</t>
+          <t>Maringá, PR</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="143">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pato Branco, PR</t>
+          <t>Mauá, SP</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="144">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Patrocínio, MG</t>
+          <t>Mauriti, CE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="145">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Petrolina, PE</t>
+          <t>Miguel Pereira, RJ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="146">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pinhais, PR</t>
+          <t>Mogi das Cruzes, SP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="147">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Poços de Caldas, MG</t>
+          <t>Mossoró, RN</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="148">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pomerode, SC</t>
+          <t>Navegantes, SC</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="149">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ponta Grossa, PR</t>
+          <t>Nossa Senhora da Glória, SE</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="150">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ponta Porã, MS</t>
+          <t>Osasco, SP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="151">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Rio Grande, RS</t>
+          <t>Osório, RS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="152">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Santiago, RS</t>
+          <t>Paranavaí, PR</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="153">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Santo Antônio da Patrulha, RS</t>
+          <t>Pato Branco, PR</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="154">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, SP</t>
+          <t>Patrocínio, MG</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="155">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>São José dos Campos, SP</t>
+          <t>Petrolina, PE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="156">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>São Leopoldo, RS</t>
+          <t>Pinhais, PR</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="157">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sapiranga, RS</t>
+          <t>Poços de Caldas, MG</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="158">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Serafina Corrêa, RS</t>
+          <t>Pomerode, SC</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="159">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sete Lagoas, MG</t>
+          <t>Ponta Grossa, PR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="160">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sidrolândia, MS</t>
+          <t>Ponta Porã, MS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="161">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Suzano, SP</t>
+          <t>Rio Grande, RS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="162">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Taquara, RS</t>
+          <t>Santa Teresa, ES</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="163">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Taubaté, SP</t>
+          <t>Santiago, RS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="164">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Umuarama, PR</t>
+          <t>Santo Antônio da Patrulha, RS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="165">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Vargem Grande Paulista, SP</t>
+          <t>São José do Rio Preto, SP</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="166">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Várzea Grande, MT</t>
+          <t>São José dos Campos, SP</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>43913.91941129913</v>
+        <v>43915.34991430258</v>
       </c>
     </row>
     <row r="167">
@@ -3363,16 +3363,268 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>São Leopoldo, RS</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Sapiranga, RS</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Serafina Corrêa, RS</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Serra, ES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Sidrolândia, MS</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Suzano, SP</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Taquara, RS</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Taubaté, SP</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Teixeira de Freitas, BA</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Telêmaco Borba, PR</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Timóteo, MG</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Umuarama, PR</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Vargem Grande Paulista, SP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Várzea Grande, MT</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>43915.34991430258</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>Viamão, RS</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="n">
-        <v>43913.91941129913</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>43915.34991430258</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/covid_citites_brazil.xlsx
+++ b/dataset/covid_citites_brazil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,16 +393,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Não informado</t>
+          <t>São Paulo, SP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>708</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>São Paulo, SP</t>
+          <t>Rio de Janeiro, RJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, RJ</t>
+          <t>Fortaleza, CE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>182</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="6">
@@ -465,16 +465,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fortaleza, CE</t>
+          <t>Belo Horizonte, MG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="7">
@@ -483,16 +483,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belo Horizonte, MG</t>
+          <t>Manaus, AM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="8">
@@ -506,11 +506,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="9">
@@ -519,16 +519,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Curitiba, PR</t>
+          <t>Porto Alegre, RS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="10">
@@ -537,16 +537,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Manaus, AM</t>
+          <t>Curitiba, PR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="11">
@@ -555,16 +555,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Porto Alegre, RS</t>
+          <t>Recife, PE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="12">
@@ -573,16 +573,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Recife, PE</t>
+          <t>Campo Grande, MS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="13">
@@ -591,16 +591,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Campo Grande, MS</t>
+          <t>Rio Branco, AC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="14">
@@ -609,16 +609,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rio Branco, AC</t>
+          <t>Florianópolis, SC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vila Velha, ES</t>
+          <t>Santo André, SP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="16">
@@ -645,16 +645,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Florianópolis, SC</t>
+          <t>Vila Velha, ES</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="17">
@@ -663,16 +663,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Goiânia, GO</t>
+          <t>São Caetano do Sul, SP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="18">
@@ -686,11 +686,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="19">
@@ -699,16 +699,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aracaju, SE</t>
+          <t>Goiânia, GO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="20">
@@ -717,16 +717,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Maceió, AL</t>
+          <t>Não informado</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="21">
@@ -735,16 +735,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Niterói, RJ</t>
+          <t>Aracaju, SE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="22">
@@ -753,16 +753,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Braço do Norte, SC</t>
+          <t>São Bernardo do Campo, SP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="23">
@@ -771,16 +771,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Criciúma, SC</t>
+          <t>Niterói, RJ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="24">
@@ -789,16 +789,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Natal, RN</t>
+          <t>Itajaí, SC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="25">
@@ -807,16 +807,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Boa Vista, RR</t>
+          <t>Maceió, AL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="26">
@@ -825,16 +825,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Feira de Santana, BA</t>
+          <t>Balneário Camboriú, SC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="27">
@@ -843,16 +843,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Juiz de Fora, MG</t>
+          <t>Braço do Norte, SC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="28">
@@ -861,16 +861,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Porto Seguro, BA</t>
+          <t>Criciúma, SC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="29">
@@ -879,16 +879,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>São Luís, MA</t>
+          <t>Natal, RN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="30">
@@ -897,16 +897,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Teresina, PI</t>
+          <t>Tubarão, SC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="31">
@@ -915,16 +915,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bagé, RS</t>
+          <t>Boa Vista, RR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="32">
@@ -933,16 +933,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blumenau, SC</t>
+          <t>Feira de Santana, BA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="33">
@@ -951,16 +951,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Itajaí, SC</t>
+          <t>Juiz de Fora, MG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="34">
@@ -969,16 +969,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nova Lima, MG</t>
+          <t>Porto Seguro, BA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="35">
@@ -987,16 +987,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Palmas, TO</t>
+          <t>São Luís, MA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="36">
@@ -1005,16 +1005,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tubarão, SC</t>
+          <t>Teresina, PI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="37">
@@ -1023,16 +1023,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aquiraz, CE</t>
+          <t>Bagé, RS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="38">
@@ -1041,16 +1041,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Balneário Camboriú, SC</t>
+          <t>Blumenau, SC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="39">
@@ -1059,16 +1059,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Uberlândia, MG</t>
+          <t>Nova Lima, MG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="40">
@@ -1077,16 +1077,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canoas, RS</t>
+          <t>Palmas, TO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="41">
@@ -1095,16 +1095,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cianorte, PR</t>
+          <t>Uberlândia, MG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="42">
@@ -1113,16 +1113,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cuiabá, MT</t>
+          <t>Aquiraz, CE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="43">
@@ -1131,16 +1131,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rio Verde, GO</t>
+          <t>Canoas, RS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="44">
@@ -1149,16 +1149,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Belém, PA</t>
+          <t>Cotia, SP</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="45">
@@ -1167,16 +1167,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Foz do Iguaçu, PR</t>
+          <t>São José, SC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="46">
@@ -1185,16 +1185,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Joinville, SC</t>
+          <t>Cianorte, PR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="47">
@@ -1203,16 +1203,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Parnamirim, RN</t>
+          <t>Cuiabá, MT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="48">
@@ -1221,16 +1221,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>São Bernardo do Campo, SP</t>
+          <t>Guarulhos, SP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="49">
@@ -1239,16 +1239,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>São Caetano do Sul, SP</t>
+          <t>Lajeado, RS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="50">
@@ -1257,16 +1257,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>São José, SC</t>
+          <t>Rio Verde, GO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="51">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sobral, CE</t>
+          <t>Belém, PA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="52">
@@ -1293,16 +1293,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Anápolis, GO</t>
+          <t>Foz do Iguaçu, PR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="53">
@@ -1311,16 +1311,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bento Gonçalves, RS</t>
+          <t>Imbituba, SC</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="54">
@@ -1329,16 +1329,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Erechim, RS</t>
+          <t>Joinville, SC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="55">
@@ -1347,16 +1347,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jaboatão dos Guararapes, PE</t>
+          <t>Mogi das Cruzes, SP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="56">
@@ -1365,16 +1365,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lajeado, RS</t>
+          <t>Parnamirim, RN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="57">
@@ -1383,16 +1383,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lauro de Freitas, BA</t>
+          <t>Porto Velho, RO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="58">
@@ -1401,16 +1401,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Linhares, ES</t>
+          <t>Sobral, CE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="59">
@@ -1419,16 +1419,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Londrina, PR</t>
+          <t>Torres, RS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="60">
@@ -1437,16 +1437,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Petrópolis, RJ</t>
+          <t>Volta Redonda, RJ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="61">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sant'ana do Livramento, RS</t>
+          <t>Anápolis, GO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="62">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Santo André, SP</t>
+          <t>Bento Gonçalves, RS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="63">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>São Gonçalo, RJ</t>
+          <t>Campinas, SP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="64">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Torres, RS</t>
+          <t>Chapecó, SC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="65">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Uberaba, MG</t>
+          <t>Erechim, RS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="66">
@@ -1545,16 +1545,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Alvorada, RS</t>
+          <t>Jaboatão dos Guararapes, PE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="67">
@@ -1563,16 +1563,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Aparecida de Goiânia, GO</t>
+          <t>Jaguaruna, SC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="68">
@@ -1581,16 +1581,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Campo Bom, RS</t>
+          <t>Lauro de Freitas, BA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Carapicuíba, SP</t>
+          <t>Linhares, ES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="70">
@@ -1617,16 +1617,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Cascavel, PR</t>
+          <t>Londrina, PR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="71">
@@ -1635,16 +1635,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Caxias do Sul, RS</t>
+          <t>Navegantes, SC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="72">
@@ -1653,16 +1653,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chapecó, SC</t>
+          <t>Osasco, SP</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="73">
@@ -1671,16 +1671,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Contagem, MG</t>
+          <t>Petrópolis, RJ</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cotia, SP</t>
+          <t>Sant'ana do Livramento, RS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="75">
@@ -1707,16 +1707,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gravatal, SC</t>
+          <t>Santana de Parnaíba, SP</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="76">
@@ -1725,16 +1725,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Imbituba, SC</t>
+          <t>São Gonçalo, RJ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="77">
@@ -1743,16 +1743,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ivoti, RS</t>
+          <t>Uberaba, MG</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="78">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jaguaruna, SC</t>
+          <t>Alvorada, RS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="79">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Jaraguá do Sul, SC</t>
+          <t>Ananindeua, PA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="80">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>João Pessoa, PB</t>
+          <t>Aparecida de Goiânia, GO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="81">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Juazeiro, BA</t>
+          <t>Campo Bom, RS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="82">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Mariana, MG</t>
+          <t>Capão da Canoa, RS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Olinda, PE</t>
+          <t>Carapicuíba, SP</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="84">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parintins, AM</t>
+          <t>Cascavel, PR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="85">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Porto Belo, SC</t>
+          <t>Caxias do Sul, RS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="86">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Porto Velho, RO</t>
+          <t>Contagem, MG</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1914,7 +1914,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="87">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Prado, BA</t>
+          <t>Gravatal, SC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="88">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Propriá, SE</t>
+          <t>Hortolândia, SP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="89">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Rancho Queimado, SC</t>
+          <t>Ivoti, RS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="90">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Santa Maria, RS</t>
+          <t>Jaraguá do Sul, SC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="91">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Santana de Parnaíba, SP</t>
+          <t>João Pessoa, PB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="92">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sete Lagoas, MG</t>
+          <t>Juazeiro, BA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="93">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Valparaíso de Goiás, GO</t>
+          <t>Mariana, MG</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="94">
@@ -2049,16 +2049,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Barra Mansa, RJ</t>
+          <t>Mauá, SP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="95">
@@ -2067,16 +2067,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Barreiras, BA</t>
+          <t>Olinda, PE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="96">
@@ -2085,16 +2085,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Barueri, SP</t>
+          <t>Parintins, AM</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="97">
@@ -2103,16 +2103,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Belo Jardim, PE</t>
+          <t>Porto Belo, SC</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="98">
@@ -2121,16 +2121,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Betim, MG</t>
+          <t>Prado, BA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="99">
@@ -2139,16 +2139,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Bom Despacho, MG</t>
+          <t>Propriá, SE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="100">
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Brumado, BA</t>
+          <t>Rancho Queimado, SC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="101">
@@ -2175,16 +2175,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cachoeiro de Itapemirim, ES</t>
+          <t>Santa Maria, RS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="102">
@@ -2193,16 +2193,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Camaçari, BA</t>
+          <t>São José dos Campos, SP</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="103">
@@ -2211,16 +2211,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Campinas, SP</t>
+          <t>São Sebastião, SP</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="104">
@@ -2229,16 +2229,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Campo Largo, PR</t>
+          <t>Serafina Corrêa, RS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="105">
@@ -2247,16 +2247,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Campos Altos, MG</t>
+          <t>Sete Lagoas, MG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="106">
@@ -2265,16 +2265,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Capão da Canoa, RS</t>
+          <t>Valparaíso de Goiás, GO</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="107">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cariacica, ES</t>
+          <t>Anta Gorda, RS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="108">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Carlos Barbosa, RS</t>
+          <t>Barra Mansa, RJ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="109">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Caruaru, PE</t>
+          <t>Barreiras, BA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="110">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Catalão, GO</t>
+          <t>Barueri, SP</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="111">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Charqueadas, RS</t>
+          <t>Belo Jardim, PE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="112">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Colombo, PR</t>
+          <t>Betim, MG</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="113">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Conceição do Jacuípe, BA</t>
+          <t>Bom Despacho, MG</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="114">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Conde, BA</t>
+          <t>Brumado, BA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="115">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Coronel Fabriciano, MG</t>
+          <t>Cachoeiro de Itapemirim, ES</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="116">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cruzeiro do Sul, RS</t>
+          <t>Caieiras, SP</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="117">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Divinópolis, MG</t>
+          <t>Camaçari, BA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="118">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Dois Irmãos, RS</t>
+          <t>Camaquã, RS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="119">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Eldorado do Sul, RS</t>
+          <t>Campo Largo, PR</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="120">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Estância Velha, RS</t>
+          <t>Campos Altos, MG</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="121">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Estrela, RS</t>
+          <t>Campos dos Goytacazes, RJ</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="122">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Farroupilha, RS</t>
+          <t>Cariacica, ES</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="123">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ferraz de Vasconcelos, SP</t>
+          <t>Carlos Barbosa, RS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="124">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fortim, CE</t>
+          <t>Caruaru, PE</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="125">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Gaspar, SC</t>
+          <t>Catalão, GO</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="126">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Guaíra, PR</t>
+          <t>Charqueadas, RS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="127">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Guapimirim, RJ</t>
+          <t>Colombo, PR</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="128">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Guarulhos, SP</t>
+          <t>Conceição do Jacuípe, BA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="129">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hortolândia, SP</t>
+          <t>Conde, BA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="130">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Içara, SC</t>
+          <t>Coronel Fabriciano, MG</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="131">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Igaracy, PB</t>
+          <t>Cruzeiro do Sul, RS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="132">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ipatinga, MG</t>
+          <t>Divinópolis, MG</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="133">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Itabuna, BA</t>
+          <t>Dois Irmãos, RS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="134">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jaguariúna, SP</t>
+          <t>Duque de Caxias, RJ</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="135">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Jataí, GO</t>
+          <t>Eldorado do Sul, RS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="136">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Jequié, BA</t>
+          <t>Embu das Artes, SP</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="137">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ji-Paraná, RO</t>
+          <t>Estância Velha, RS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="138">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, CE</t>
+          <t>Estrela, RS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="139">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lagoa da Prata, MG</t>
+          <t>Farroupilha, RS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="140">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Macapá, AP</t>
+          <t>Ferraz de Vasconcelos, SP</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="141">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Marabá, PA</t>
+          <t>Fortim, CE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="142">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Maringá, PR</t>
+          <t>Garibaldi, RS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="143">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mauá, SP</t>
+          <t>Gaspar, SC</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="144">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Mauriti, CE</t>
+          <t>Guaíra, PR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="145">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Miguel Pereira, RJ</t>
+          <t>Guapimirim, RJ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="146">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mogi das Cruzes, SP</t>
+          <t>Içara, SC</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="147">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mossoró, RN</t>
+          <t>Igaracy, PB</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="148">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Navegantes, SC</t>
+          <t>Ipatinga, MG</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="149">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nossa Senhora da Glória, SE</t>
+          <t>Itabuna, BA</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="150">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Osasco, SP</t>
+          <t>Jaguariúna, SP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="151">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Osório, RS</t>
+          <t>Jataí, GO</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3084,7 +3084,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="152">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Paranavaí, PR</t>
+          <t>Jequié, BA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="153">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pato Branco, PR</t>
+          <t>Ji-Paraná, RO</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="154">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Patrocínio, MG</t>
+          <t>Juazeiro do Norte, CE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="155">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Petrolina, PE</t>
+          <t>Jundiaí, SP</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="156">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Pinhais, PR</t>
+          <t>Lagoa da Prata, MG</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="157">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Poços de Caldas, MG</t>
+          <t>Laguna, SC</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="158">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Pomerode, SC</t>
+          <t>Macapá, AP</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="159">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ponta Grossa, PR</t>
+          <t>Marabá, PA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="160">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ponta Porã, MS</t>
+          <t>Maringá, PR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="161">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Rio Grande, RS</t>
+          <t>Mauriti, CE</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="162">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Santa Teresa, ES</t>
+          <t>Miguel Pereira, RJ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="163">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Santiago, RS</t>
+          <t>Mossoró, RN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="164">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Santo Antônio da Patrulha, RS</t>
+          <t>Nossa Senhora da Glória, SE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="165">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, SP</t>
+          <t>Osório, RS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="166">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>São José dos Campos, SP</t>
+          <t>Paraí, RS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="167">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>São Leopoldo, RS</t>
+          <t>Paranavaí, PR</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="168">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sapiranga, RS</t>
+          <t>Pato Branco, PR</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="169">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Serafina Corrêa, RS</t>
+          <t>Patrocínio, MG</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="170">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Serra, ES</t>
+          <t>Petrolina, PE</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="171">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sidrolândia, MS</t>
+          <t>Pinhais, PR</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="172">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Suzano, SP</t>
+          <t>Poá, SP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="173">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Taquara, RS</t>
+          <t>Poços de Caldas, MG</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="174">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Taubaté, SP</t>
+          <t>Pomerode, SC</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="175">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Teixeira de Freitas, BA</t>
+          <t>Ponta Grossa, PR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="176">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Telêmaco Borba, PR</t>
+          <t>Ponta Porã, MS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3534,7 +3534,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="177">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Timóteo, MG</t>
+          <t>Ribeirão Pires, SP</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="178">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Umuarama, PR</t>
+          <t>Rio Claro, SP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="179">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Vargem Grande Paulista, SP</t>
+          <t>Rio Grande, RS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="180">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Várzea Grande, MT</t>
+          <t>Santa Teresa, ES</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>43915.34991430258</v>
+        <v>43915.77775300515</v>
       </c>
     </row>
     <row r="181">
@@ -3615,16 +3615,394 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>Santiago, RS</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Santo Antônio da Patrulha, RS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>São Domingos, BA</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>São João del Rei, MG</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>São José do Rio Preto, SP</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>São Leopoldo, RS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sapiranga, RS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Serra, ES</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sidrolândia, MS</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Suzano, SP</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Taboão da Serra, SP</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Taquara, RS</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Taubaté, SP</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Teixeira de Freitas, BA</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Telêmaco Borba, PR</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tijucas, SC</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Timóteo, MG</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Umuarama, PR</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Valinhos, SP</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Vargem Grande Paulista, SP</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Várzea Grande, MT</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>43915.77775300515</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>Viamão, RS</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="n">
-        <v>43915.34991430258</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>43915.77775300515</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/covid_citites_brazil.xlsx
+++ b/dataset/covid_citites_brazil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="450">
   <si>
     <t>city</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Salvador, BA</t>
   </si>
   <si>
-    <t>Não informado</t>
+    <t>Alta Floresta D'Oeste</t>
   </si>
   <si>
     <t>Curitiba, PR</t>
@@ -115,12 +115,12 @@
     <t>Aracaju, SE</t>
   </si>
   <si>
+    <t>Maceió, AL</t>
+  </si>
+  <si>
     <t>São Caetano do Sul, SP</t>
   </si>
   <si>
-    <t>Maceió, AL</t>
-  </si>
-  <si>
     <t>Mossoró, RN</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>Boa Vista, RR</t>
   </si>
   <si>
+    <t>João Pessoa, PB</t>
+  </si>
+  <si>
     <t>Joinville, SC</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>Feira de Santana, BA</t>
   </si>
   <si>
-    <t>João Pessoa, PB</t>
-  </si>
-  <si>
     <t>Lauro de Freitas, BA</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>Canoas, RS</t>
   </si>
   <si>
+    <t>Acrelândia, AC</t>
+  </si>
+  <si>
     <t>Camboriú, SC</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
     <t>Torres, RS</t>
   </si>
   <si>
-    <t>Acrelândia, AC</t>
-  </si>
-  <si>
     <t>Ananindeua, PA</t>
   </si>
   <si>
@@ -1156,132 +1156,135 @@
     <t>Viamão, RS</t>
   </si>
   <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -1348,10 +1351,10 @@
     <t>RR</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>MT</t>
-  </si>
-  <si>
-    <t>PB</t>
   </si>
   <si>
     <t>AP</t>
@@ -1759,13 +1762,13 @@
         <v>380</v>
       </c>
       <c r="D2" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G2">
         <v>90603</v>
@@ -1782,13 +1785,13 @@
         <v>381</v>
       </c>
       <c r="D3" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G3">
         <v>32736</v>
@@ -1805,13 +1808,13 @@
         <v>382</v>
       </c>
       <c r="D4" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G4">
         <v>18510</v>
@@ -1828,13 +1831,13 @@
         <v>383</v>
       </c>
       <c r="D5" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G5">
         <v>6705</v>
@@ -1851,13 +1854,13 @@
         <v>384</v>
       </c>
       <c r="D6" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G6">
         <v>40699</v>
@@ -1874,13 +1877,13 @@
         <v>385</v>
       </c>
       <c r="D7" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G7">
         <v>30123</v>
@@ -1897,13 +1900,13 @@
         <v>386</v>
       </c>
       <c r="D8" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G8">
         <v>5700</v>
@@ -1920,13 +1923,13 @@
         <v>387</v>
       </c>
       <c r="D9" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G9">
         <v>28960</v>
@@ -1943,7 +1946,7 @@
         <v>388</v>
       </c>
       <c r="D10" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1960,13 +1963,13 @@
         <v>389</v>
       </c>
       <c r="D11" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G11">
         <v>27502</v>
@@ -1983,13 +1986,13 @@
         <v>390</v>
       </c>
       <c r="D12" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G12">
         <v>20961</v>
@@ -2006,13 +2009,13 @@
         <v>391</v>
       </c>
       <c r="D13" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G13">
         <v>15322</v>
@@ -2029,13 +2032,13 @@
         <v>392</v>
       </c>
       <c r="D14" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G14">
         <v>32736</v>
@@ -2052,13 +2055,13 @@
         <v>393</v>
       </c>
       <c r="D15" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G15">
         <v>90603</v>
@@ -2075,13 +2078,13 @@
         <v>394</v>
       </c>
       <c r="D16" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G16">
         <v>5596</v>
@@ -2098,13 +2101,13 @@
         <v>395</v>
       </c>
       <c r="D17" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G17">
         <v>7272</v>
@@ -2121,13 +2124,13 @@
         <v>396</v>
       </c>
       <c r="D18" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G18">
         <v>17445</v>
@@ -2144,13 +2147,13 @@
         <v>397</v>
       </c>
       <c r="D19" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G19">
         <v>1484</v>
@@ -2167,13 +2170,13 @@
         <v>398</v>
       </c>
       <c r="D20" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G20">
         <v>90603</v>
@@ -2190,13 +2193,13 @@
         <v>399</v>
       </c>
       <c r="D21" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F21" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G21">
         <v>7929</v>
@@ -2213,13 +2216,13 @@
         <v>400</v>
       </c>
       <c r="D22" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G22">
         <v>13778</v>
@@ -2236,13 +2239,13 @@
         <v>401</v>
       </c>
       <c r="D23" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G23">
         <v>7929</v>
@@ -2259,13 +2262,13 @@
         <v>402</v>
       </c>
       <c r="D24" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G24">
         <v>40699</v>
@@ -2282,13 +2285,13 @@
         <v>403</v>
       </c>
       <c r="D25" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G25">
         <v>13584</v>
@@ -2305,13 +2308,13 @@
         <v>404</v>
       </c>
       <c r="D26" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F26" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G26">
         <v>40699</v>
@@ -2328,13 +2331,13 @@
         <v>405</v>
       </c>
       <c r="D27" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G27">
         <v>15322</v>
@@ -2351,13 +2354,13 @@
         <v>406</v>
       </c>
       <c r="D28" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G28">
         <v>3212</v>
@@ -2374,16 +2377,16 @@
         <v>406</v>
       </c>
       <c r="D29" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E29" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="G29">
-        <v>90603</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2394,19 +2397,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D30" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E30" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F30" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="G30">
-        <v>5891</v>
+        <v>90603</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2420,13 +2423,13 @@
         <v>407</v>
       </c>
       <c r="D31" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G31">
         <v>7272</v>
@@ -2443,13 +2446,13 @@
         <v>407</v>
       </c>
       <c r="D32" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G32">
         <v>7460</v>
@@ -2466,13 +2469,13 @@
         <v>408</v>
       </c>
       <c r="D33" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F33" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G33">
         <v>30123</v>
@@ -2489,13 +2492,13 @@
         <v>408</v>
       </c>
       <c r="D34" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G34">
         <v>15322</v>
@@ -2512,13 +2515,13 @@
         <v>409</v>
       </c>
       <c r="D35" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G35">
         <v>18510</v>
@@ -2535,13 +2538,13 @@
         <v>409</v>
       </c>
       <c r="D36" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G36">
         <v>15322</v>
@@ -2558,13 +2561,13 @@
         <v>409</v>
       </c>
       <c r="D37" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F37" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G37">
         <v>1133</v>
@@ -2581,16 +2584,16 @@
         <v>409</v>
       </c>
       <c r="D38" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E38" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F38" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="G38">
-        <v>15322</v>
+        <v>8171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2604,16 +2607,16 @@
         <v>409</v>
       </c>
       <c r="D39" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E39" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F39" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="G39">
-        <v>90603</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2627,16 +2630,16 @@
         <v>409</v>
       </c>
       <c r="D40" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E40" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F40" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="G40">
-        <v>7929</v>
+        <v>90603</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2647,19 +2650,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D41" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E41" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="F41" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="G41">
-        <v>30123</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2673,16 +2676,16 @@
         <v>410</v>
       </c>
       <c r="D42" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E42" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F42" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G42">
-        <v>90603</v>
+        <v>30123</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2693,19 +2696,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D43" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E43" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F43" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G43">
-        <v>15322</v>
+        <v>90603</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2719,16 +2722,16 @@
         <v>411</v>
       </c>
       <c r="D44" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E44" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F44" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G44">
-        <v>7156</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2742,16 +2745,16 @@
         <v>411</v>
       </c>
       <c r="D45" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E45" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="F45" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="G45">
-        <v>28960</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2765,16 +2768,16 @@
         <v>411</v>
       </c>
       <c r="D46" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E46" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="F46" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="G46">
-        <v>8171</v>
+        <v>28960</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2788,13 +2791,13 @@
         <v>411</v>
       </c>
       <c r="D47" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G47">
         <v>28960</v>
@@ -2811,13 +2814,13 @@
         <v>412</v>
       </c>
       <c r="D48" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G48">
         <v>90603</v>
@@ -2834,13 +2837,13 @@
         <v>412</v>
       </c>
       <c r="D49" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E49" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F49" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G49">
         <v>32736</v>
@@ -2857,13 +2860,13 @@
         <v>413</v>
       </c>
       <c r="D50" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G50">
         <v>27502</v>
@@ -2880,13 +2883,13 @@
         <v>413</v>
       </c>
       <c r="D51" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E51" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F51" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G51">
         <v>27502</v>
@@ -2903,13 +2906,13 @@
         <v>413</v>
       </c>
       <c r="D52" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G52">
         <v>1098</v>
@@ -2926,13 +2929,13 @@
         <v>413</v>
       </c>
       <c r="D53" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E53" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F53" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G53">
         <v>7272</v>
@@ -2949,13 +2952,13 @@
         <v>413</v>
       </c>
       <c r="D54" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G54">
         <v>28960</v>
@@ -2972,13 +2975,13 @@
         <v>413</v>
       </c>
       <c r="D55" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G55">
         <v>15322</v>
@@ -2995,13 +2998,13 @@
         <v>413</v>
       </c>
       <c r="D56" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E56" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G56">
         <v>40699</v>
@@ -3018,13 +3021,13 @@
         <v>414</v>
       </c>
       <c r="D57" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E57" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F57" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G57">
         <v>15322</v>
@@ -3041,13 +3044,13 @@
         <v>414</v>
       </c>
       <c r="D58" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G58">
         <v>40699</v>
@@ -3064,13 +3067,13 @@
         <v>414</v>
       </c>
       <c r="D59" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G59">
         <v>27502</v>
@@ -3087,13 +3090,13 @@
         <v>414</v>
       </c>
       <c r="D60" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E60" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G60">
         <v>27502</v>
@@ -3110,13 +3113,13 @@
         <v>414</v>
       </c>
       <c r="D61" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G61">
         <v>90603</v>
@@ -3133,13 +3136,13 @@
         <v>414</v>
       </c>
       <c r="D62" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G62">
         <v>3072</v>
@@ -3156,13 +3159,13 @@
         <v>414</v>
       </c>
       <c r="D63" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G63">
         <v>15322</v>
@@ -3179,13 +3182,13 @@
         <v>415</v>
       </c>
       <c r="D64" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E64" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G64">
         <v>30123</v>
@@ -3202,16 +3205,16 @@
         <v>416</v>
       </c>
       <c r="D65" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F65" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G65">
-        <v>15322</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3225,16 +3228,16 @@
         <v>416</v>
       </c>
       <c r="D66" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E66" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F66" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G66">
-        <v>27502</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3248,16 +3251,16 @@
         <v>416</v>
       </c>
       <c r="D67" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E67" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G67">
-        <v>32736</v>
+        <v>27502</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3271,16 +3274,16 @@
         <v>416</v>
       </c>
       <c r="D68" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E68" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G68">
-        <v>17445</v>
+        <v>32736</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3294,16 +3297,16 @@
         <v>416</v>
       </c>
       <c r="D69" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E69" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="G69">
-        <v>90603</v>
+        <v>17445</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3317,7 +3320,7 @@
         <v>416</v>
       </c>
       <c r="D70" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E70" t="s">
         <v>423</v>
@@ -3326,7 +3329,7 @@
         <v>423</v>
       </c>
       <c r="G70">
-        <v>32736</v>
+        <v>90603</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3340,16 +3343,16 @@
         <v>416</v>
       </c>
       <c r="D71" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E71" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G71">
-        <v>30123</v>
+        <v>32736</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3360,19 +3363,19 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D72" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E72" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F72" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G72">
-        <v>1484</v>
+        <v>30123</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3386,13 +3389,13 @@
         <v>417</v>
       </c>
       <c r="D73" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G73">
         <v>13584</v>
@@ -3409,13 +3412,13 @@
         <v>417</v>
       </c>
       <c r="D74" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E74" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F74" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G74">
         <v>90603</v>
@@ -3432,13 +3435,13 @@
         <v>417</v>
       </c>
       <c r="D75" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F75" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G75">
         <v>90603</v>
@@ -3455,13 +3458,13 @@
         <v>417</v>
       </c>
       <c r="D76" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E76" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F76" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G76">
         <v>20961</v>
@@ -3478,13 +3481,13 @@
         <v>417</v>
       </c>
       <c r="D77" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G77">
         <v>4286</v>
@@ -3501,13 +3504,13 @@
         <v>418</v>
       </c>
       <c r="D78" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F78" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G78">
         <v>40699</v>
@@ -3524,13 +3527,13 @@
         <v>418</v>
       </c>
       <c r="D79" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G79">
         <v>15322</v>
@@ -3547,13 +3550,13 @@
         <v>418</v>
       </c>
       <c r="D80" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E80" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F80" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G80">
         <v>40699</v>
@@ -3570,13 +3573,13 @@
         <v>418</v>
       </c>
       <c r="D81" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G81">
         <v>32736</v>
@@ -3593,13 +3596,13 @@
         <v>418</v>
       </c>
       <c r="D82" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E82" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F82" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G82">
         <v>15322</v>
@@ -3616,13 +3619,13 @@
         <v>418</v>
       </c>
       <c r="D83" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E83" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G83">
         <v>30123</v>
@@ -3639,13 +3642,13 @@
         <v>418</v>
       </c>
       <c r="D84" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E84" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F84" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G84">
         <v>20961</v>
@@ -3662,13 +3665,13 @@
         <v>418</v>
       </c>
       <c r="D85" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E85" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F85" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G85">
         <v>90603</v>
@@ -3685,13 +3688,13 @@
         <v>418</v>
       </c>
       <c r="D86" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E86" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G86">
         <v>90603</v>
@@ -3708,13 +3711,13 @@
         <v>418</v>
       </c>
       <c r="D87" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G87">
         <v>18510</v>
@@ -3731,13 +3734,13 @@
         <v>419</v>
       </c>
       <c r="D88" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G88">
         <v>17445</v>
@@ -3754,13 +3757,13 @@
         <v>419</v>
       </c>
       <c r="D89" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E89" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F89" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G89">
         <v>5700</v>
@@ -3777,13 +3780,13 @@
         <v>419</v>
       </c>
       <c r="D90" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E90" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F90" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G90">
         <v>7929</v>
@@ -3800,13 +3803,13 @@
         <v>419</v>
       </c>
       <c r="D91" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E91" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F91" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G91">
         <v>5700</v>
@@ -3823,13 +3826,13 @@
         <v>419</v>
       </c>
       <c r="D92" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E92" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F92" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G92">
         <v>32736</v>
@@ -3846,13 +3849,13 @@
         <v>419</v>
       </c>
       <c r="D93" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F93" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G93">
         <v>15322</v>
@@ -3869,13 +3872,13 @@
         <v>419</v>
       </c>
       <c r="D94" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G94">
         <v>30123</v>
@@ -3892,13 +3895,13 @@
         <v>420</v>
       </c>
       <c r="D95" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E95" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F95" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G95">
         <v>5596</v>
@@ -3915,13 +3918,13 @@
         <v>420</v>
       </c>
       <c r="D96" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E96" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F96" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G96">
         <v>30123</v>
@@ -3938,13 +3941,13 @@
         <v>420</v>
       </c>
       <c r="D97" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G97">
         <v>27502</v>
@@ -3961,13 +3964,13 @@
         <v>420</v>
       </c>
       <c r="D98" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G98">
         <v>27502</v>
@@ -3984,13 +3987,13 @@
         <v>420</v>
       </c>
       <c r="D99" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E99" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F99" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G99">
         <v>90603</v>
@@ -4007,13 +4010,13 @@
         <v>420</v>
       </c>
       <c r="D100" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E100" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F100" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G100">
         <v>7929</v>
@@ -4030,13 +4033,13 @@
         <v>420</v>
       </c>
       <c r="D101" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G101">
         <v>90603</v>
@@ -4053,13 +4056,13 @@
         <v>420</v>
       </c>
       <c r="D102" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E102" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F102" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G102">
         <v>30123</v>
@@ -4076,13 +4079,13 @@
         <v>420</v>
       </c>
       <c r="D103" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E103" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F103" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G103">
         <v>90603</v>
@@ -4099,13 +4102,13 @@
         <v>420</v>
       </c>
       <c r="D104" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E104" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F104" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G104">
         <v>15322</v>
@@ -4122,13 +4125,13 @@
         <v>420</v>
       </c>
       <c r="D105" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E105" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F105" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G105">
         <v>32736</v>
@@ -4145,13 +4148,13 @@
         <v>420</v>
       </c>
       <c r="D106" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F106" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G106">
         <v>28960</v>
@@ -4168,13 +4171,13 @@
         <v>420</v>
       </c>
       <c r="D107" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G107">
         <v>30123</v>
@@ -4191,13 +4194,13 @@
         <v>420</v>
       </c>
       <c r="D108" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G108">
         <v>15322</v>
@@ -4214,13 +4217,13 @@
         <v>420</v>
       </c>
       <c r="D109" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E109" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F109" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G109">
         <v>90603</v>
@@ -4237,13 +4240,13 @@
         <v>420</v>
       </c>
       <c r="D110" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F110" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G110">
         <v>15322</v>
@@ -4260,13 +4263,13 @@
         <v>420</v>
       </c>
       <c r="D111" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E111" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F111" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G111">
         <v>5700</v>
@@ -4283,13 +4286,13 @@
         <v>420</v>
       </c>
       <c r="D112" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E112" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F112" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G112">
         <v>27502</v>
@@ -4306,13 +4309,13 @@
         <v>420</v>
       </c>
       <c r="D113" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E113" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F113" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G113">
         <v>90603</v>
@@ -4329,13 +4332,13 @@
         <v>420</v>
       </c>
       <c r="D114" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E114" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F114" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G114">
         <v>27502</v>
@@ -4352,13 +4355,13 @@
         <v>420</v>
       </c>
       <c r="D115" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E115" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F115" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G115">
         <v>7156</v>
@@ -4375,13 +4378,13 @@
         <v>420</v>
       </c>
       <c r="D116" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E116" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F116" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G116">
         <v>40699</v>
@@ -4398,13 +4401,13 @@
         <v>420</v>
       </c>
       <c r="D117" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E117" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F117" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G117">
         <v>90603</v>
@@ -4421,13 +4424,13 @@
         <v>420</v>
       </c>
       <c r="D118" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E118" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F118" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G118">
         <v>27502</v>
@@ -4444,13 +4447,13 @@
         <v>420</v>
       </c>
       <c r="D119" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E119" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F119" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G119">
         <v>30123</v>
@@ -4467,13 +4470,13 @@
         <v>420</v>
       </c>
       <c r="D120" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E120" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F120" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G120">
         <v>20961</v>
@@ -4490,13 +4493,13 @@
         <v>420</v>
       </c>
       <c r="D121" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G121">
         <v>90603</v>
@@ -4513,13 +4516,13 @@
         <v>420</v>
       </c>
       <c r="D122" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G122">
         <v>90603</v>
@@ -4536,13 +4539,13 @@
         <v>420</v>
       </c>
       <c r="D123" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F123" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G123">
         <v>40699</v>
@@ -4559,13 +4562,13 @@
         <v>421</v>
       </c>
       <c r="D124" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F124" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G124">
         <v>27502</v>
@@ -4582,13 +4585,13 @@
         <v>421</v>
       </c>
       <c r="D125" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G125">
         <v>30123</v>
@@ -4605,13 +4608,13 @@
         <v>421</v>
       </c>
       <c r="D126" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G126">
         <v>30123</v>
@@ -4628,13 +4631,13 @@
         <v>421</v>
       </c>
       <c r="D127" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E127" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F127" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G127">
         <v>17445</v>
@@ -4651,13 +4654,13 @@
         <v>421</v>
       </c>
       <c r="D128" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E128" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F128" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G128">
         <v>3072</v>
@@ -4674,13 +4677,13 @@
         <v>421</v>
       </c>
       <c r="D129" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E129" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F129" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G129">
         <v>32736</v>
@@ -4697,13 +4700,13 @@
         <v>421</v>
       </c>
       <c r="D130" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G130">
         <v>1133</v>
@@ -4720,13 +4723,13 @@
         <v>421</v>
       </c>
       <c r="D131" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G131">
         <v>15322</v>
@@ -4743,13 +4746,13 @@
         <v>421</v>
       </c>
       <c r="D132" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E132" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F132" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G132">
         <v>90603</v>
@@ -4766,7 +4769,7 @@
         <v>421</v>
       </c>
       <c r="D133" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E133" t="s">
         <v>445</v>
@@ -4789,13 +4792,13 @@
         <v>421</v>
       </c>
       <c r="D134" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E134" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F134" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G134">
         <v>30123</v>
@@ -4812,13 +4815,13 @@
         <v>421</v>
       </c>
       <c r="D135" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G135">
         <v>30123</v>
@@ -4835,13 +4838,13 @@
         <v>421</v>
       </c>
       <c r="D136" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E136" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F136" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G136">
         <v>27502</v>
@@ -4858,13 +4861,13 @@
         <v>421</v>
       </c>
       <c r="D137" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G137">
         <v>90603</v>
@@ -4881,13 +4884,13 @@
         <v>421</v>
       </c>
       <c r="D138" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F138" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G138">
         <v>5596</v>
@@ -4904,13 +4907,13 @@
         <v>421</v>
       </c>
       <c r="D139" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E139" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F139" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G139">
         <v>30123</v>
@@ -4927,13 +4930,13 @@
         <v>421</v>
       </c>
       <c r="D140" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E140" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F140" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G140">
         <v>20961</v>
@@ -4950,13 +4953,13 @@
         <v>421</v>
       </c>
       <c r="D141" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E141" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F141" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G141">
         <v>15322</v>
@@ -4973,13 +4976,13 @@
         <v>421</v>
       </c>
       <c r="D142" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G142">
         <v>40699</v>
@@ -4996,13 +4999,13 @@
         <v>421</v>
       </c>
       <c r="D143" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F143" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G143">
         <v>27502</v>
@@ -5019,13 +5022,13 @@
         <v>421</v>
       </c>
       <c r="D144" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G144">
         <v>28960</v>
@@ -5042,13 +5045,13 @@
         <v>421</v>
       </c>
       <c r="D145" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E145" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F145" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G145">
         <v>15322</v>
@@ -5065,13 +5068,13 @@
         <v>421</v>
       </c>
       <c r="D146" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G146">
         <v>17445</v>
@@ -5088,13 +5091,13 @@
         <v>421</v>
       </c>
       <c r="D147" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G147">
         <v>15322</v>
@@ -5111,13 +5114,13 @@
         <v>421</v>
       </c>
       <c r="D148" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G148">
         <v>17445</v>
@@ -5134,13 +5137,13 @@
         <v>421</v>
       </c>
       <c r="D149" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G149">
         <v>28960</v>
@@ -5157,13 +5160,13 @@
         <v>421</v>
       </c>
       <c r="D150" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G150">
         <v>40699</v>
@@ -5180,13 +5183,13 @@
         <v>421</v>
       </c>
       <c r="D151" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E151" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F151" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G151">
         <v>90603</v>
@@ -5203,13 +5206,13 @@
         <v>421</v>
       </c>
       <c r="D152" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F152" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G152">
         <v>90603</v>
@@ -5226,13 +5229,13 @@
         <v>421</v>
       </c>
       <c r="D153" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G153">
         <v>40699</v>
@@ -5249,13 +5252,13 @@
         <v>421</v>
       </c>
       <c r="D154" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E154" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F154" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G154">
         <v>90603</v>
@@ -5272,13 +5275,13 @@
         <v>421</v>
       </c>
       <c r="D155" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F155" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G155">
         <v>30123</v>
@@ -5295,13 +5298,13 @@
         <v>421</v>
       </c>
       <c r="D156" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G156">
         <v>15322</v>
@@ -5318,13 +5321,13 @@
         <v>421</v>
       </c>
       <c r="D157" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G157">
         <v>27502</v>
@@ -5341,13 +5344,13 @@
         <v>421</v>
       </c>
       <c r="D158" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E158" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F158" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G158">
         <v>27502</v>
@@ -5364,13 +5367,13 @@
         <v>421</v>
       </c>
       <c r="D159" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G159">
         <v>30123</v>
@@ -5387,13 +5390,13 @@
         <v>421</v>
       </c>
       <c r="D160" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F160" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G160">
         <v>20961</v>
@@ -5410,13 +5413,13 @@
         <v>421</v>
       </c>
       <c r="D161" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E161" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F161" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G161">
         <v>40699</v>
@@ -5433,13 +5436,13 @@
         <v>421</v>
       </c>
       <c r="D162" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E162" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G162">
         <v>28960</v>
@@ -5456,13 +5459,13 @@
         <v>421</v>
       </c>
       <c r="D163" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G163">
         <v>3212</v>
@@ -5479,13 +5482,13 @@
         <v>421</v>
       </c>
       <c r="D164" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E164" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F164" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G164">
         <v>18510</v>
@@ -5502,13 +5505,13 @@
         <v>421</v>
       </c>
       <c r="D165" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F165" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G165">
         <v>15322</v>
@@ -5525,13 +5528,13 @@
         <v>421</v>
       </c>
       <c r="D166" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E166" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F166" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G166">
         <v>32736</v>
@@ -5548,13 +5551,13 @@
         <v>421</v>
       </c>
       <c r="D167" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E167" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F167" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G167">
         <v>32736</v>
@@ -5571,13 +5574,13 @@
         <v>421</v>
       </c>
       <c r="D168" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E168" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F168" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G168">
         <v>32736</v>
@@ -5594,13 +5597,13 @@
         <v>421</v>
       </c>
       <c r="D169" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E169" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F169" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G169">
         <v>30123</v>
@@ -5617,13 +5620,13 @@
         <v>421</v>
       </c>
       <c r="D170" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E170" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F170" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G170">
         <v>30123</v>
@@ -5640,13 +5643,13 @@
         <v>421</v>
       </c>
       <c r="D171" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E171" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F171" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G171">
         <v>7272</v>
@@ -5663,13 +5666,13 @@
         <v>421</v>
       </c>
       <c r="D172" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E172" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F172" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G172">
         <v>40699</v>
@@ -5686,13 +5689,13 @@
         <v>421</v>
       </c>
       <c r="D173" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E173" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F173" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G173">
         <v>90603</v>
@@ -5709,13 +5712,13 @@
         <v>421</v>
       </c>
       <c r="D174" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E174" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F174" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G174">
         <v>30123</v>
@@ -5732,13 +5735,13 @@
         <v>421</v>
       </c>
       <c r="D175" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E175" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F175" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G175">
         <v>40699</v>
@@ -5755,13 +5758,13 @@
         <v>421</v>
       </c>
       <c r="D176" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E176" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F176" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G176">
         <v>15322</v>
@@ -5778,13 +5781,13 @@
         <v>421</v>
       </c>
       <c r="D177" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E177" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F177" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G177">
         <v>90603</v>
@@ -5801,13 +5804,13 @@
         <v>421</v>
       </c>
       <c r="D178" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E178" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F178" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G178">
         <v>27502</v>
@@ -5824,13 +5827,13 @@
         <v>421</v>
       </c>
       <c r="D179" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E179" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F179" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G179">
         <v>27502</v>
@@ -5847,13 +5850,13 @@
         <v>421</v>
       </c>
       <c r="D180" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E180" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F180" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G180">
         <v>17445</v>
@@ -5870,13 +5873,13 @@
         <v>421</v>
       </c>
       <c r="D181" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E181" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F181" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G181">
         <v>90603</v>
@@ -5893,13 +5896,13 @@
         <v>421</v>
       </c>
       <c r="D182" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E182" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F182" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G182">
         <v>7156</v>
@@ -5913,16 +5916,16 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D183" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E183" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F183" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G183">
         <v>13584</v>
@@ -5936,16 +5939,16 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D184" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E184" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F184" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G184">
         <v>7272</v>
@@ -5959,16 +5962,16 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D185" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E185" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F185" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G185">
         <v>17445</v>
@@ -5982,16 +5985,16 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D186" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F186" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G186">
         <v>28960</v>
@@ -6005,16 +6008,16 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D187" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E187" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F187" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G187">
         <v>5596</v>
@@ -6028,16 +6031,16 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D188" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E188" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F188" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G188">
         <v>40699</v>
@@ -6051,16 +6054,16 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D189" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E189" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F189" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G189">
         <v>32736</v>
@@ -6074,16 +6077,16 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D190" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E190" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F190" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G190">
         <v>5700</v>
@@ -6097,16 +6100,16 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D191" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E191" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F191" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G191">
         <v>15322</v>
@@ -6120,16 +6123,16 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D192" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G192">
         <v>7272</v>
@@ -6143,16 +6146,16 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D193" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E193" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F193" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G193">
         <v>90603</v>
@@ -6166,16 +6169,16 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D194" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E194" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F194" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G194">
         <v>15322</v>
@@ -6189,16 +6192,16 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D195" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E195" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F195" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G195">
         <v>32736</v>
@@ -6212,16 +6215,16 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D196" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E196" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F196" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G196">
         <v>28960</v>
@@ -6235,16 +6238,16 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D197" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E197" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F197" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G197">
         <v>18510</v>
@@ -6258,16 +6261,16 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D198" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E198" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F198" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G198">
         <v>20961</v>
@@ -6281,16 +6284,16 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D199" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E199" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F199" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G199">
         <v>40699</v>
@@ -6304,16 +6307,16 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D200" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E200" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F200" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G200">
         <v>5700</v>
@@ -6327,16 +6330,16 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D201" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E201" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F201" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G201">
         <v>40699</v>
@@ -6350,16 +6353,16 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D202" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F202" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G202">
         <v>90603</v>
@@ -6373,16 +6376,16 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D203" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E203" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F203" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G203">
         <v>28960</v>
@@ -6396,16 +6399,16 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D204" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E204" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F204" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G204">
         <v>30123</v>
@@ -6419,16 +6422,16 @@
         <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D205" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E205" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F205" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G205">
         <v>30123</v>
@@ -6442,16 +6445,16 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D206" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E206" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F206" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G206">
         <v>7929</v>
@@ -6465,16 +6468,16 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D207" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E207" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F207" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G207">
         <v>7272</v>
@@ -6488,16 +6491,16 @@
         <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D208" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E208" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F208" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G208">
         <v>90603</v>
@@ -6511,16 +6514,16 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D209" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E209" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F209" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G209">
         <v>28960</v>
@@ -6534,16 +6537,16 @@
         <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D210" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E210" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F210" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G210">
         <v>20961</v>
@@ -6557,16 +6560,16 @@
         <v>215</v>
       </c>
       <c r="C211" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D211" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E211" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F211" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G211">
         <v>40699</v>
@@ -6580,16 +6583,16 @@
         <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D212" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E212" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F212" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G212">
         <v>40699</v>
@@ -6603,16 +6606,16 @@
         <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D213" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G213">
         <v>32736</v>
@@ -6626,16 +6629,16 @@
         <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D214" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E214" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F214" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G214">
         <v>28960</v>
@@ -6649,16 +6652,16 @@
         <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D215" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E215" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F215" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G215">
         <v>15322</v>
@@ -6672,16 +6675,16 @@
         <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D216" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G216">
         <v>30123</v>
@@ -6695,16 +6698,16 @@
         <v>221</v>
       </c>
       <c r="C217" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D217" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F217" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G217">
         <v>30123</v>
@@ -6718,16 +6721,16 @@
         <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D218" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G218">
         <v>30123</v>
@@ -6741,16 +6744,16 @@
         <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D219" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E219" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G219">
         <v>40699</v>
@@ -6764,16 +6767,16 @@
         <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D220" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G220">
         <v>7272</v>
@@ -6787,16 +6790,16 @@
         <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D221" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G221">
         <v>20961</v>
@@ -6810,16 +6813,16 @@
         <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D222" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F222" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G222">
         <v>13584</v>
@@ -6833,16 +6836,16 @@
         <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D223" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G223">
         <v>7929</v>
@@ -6856,16 +6859,16 @@
         <v>228</v>
       </c>
       <c r="C224" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D224" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G224">
         <v>27502</v>
@@ -6879,16 +6882,16 @@
         <v>229</v>
       </c>
       <c r="C225" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D225" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G225">
         <v>17445</v>
@@ -6902,16 +6905,16 @@
         <v>230</v>
       </c>
       <c r="C226" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D226" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E226" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G226">
         <v>18510</v>
@@ -6925,16 +6928,16 @@
         <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D227" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G227">
         <v>30123</v>
@@ -6948,16 +6951,16 @@
         <v>232</v>
       </c>
       <c r="C228" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D228" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G228">
         <v>30123</v>
@@ -6971,16 +6974,16 @@
         <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D229" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G229">
         <v>28960</v>
@@ -6994,16 +6997,16 @@
         <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D230" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G230">
         <v>28960</v>
@@ -7017,16 +7020,16 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D231" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E231" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G231">
         <v>27502</v>
@@ -7040,16 +7043,16 @@
         <v>236</v>
       </c>
       <c r="C232" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D232" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E232" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G232">
         <v>40699</v>
@@ -7063,16 +7066,16 @@
         <v>237</v>
       </c>
       <c r="C233" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D233" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F233" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G233">
         <v>30123</v>
@@ -7086,16 +7089,16 @@
         <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D234" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F234" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G234">
         <v>28960</v>
@@ -7109,16 +7112,16 @@
         <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D235" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E235" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F235" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G235">
         <v>30123</v>
@@ -7132,16 +7135,16 @@
         <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D236" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G236">
         <v>30123</v>
@@ -7155,16 +7158,16 @@
         <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D237" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E237" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F237" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G237">
         <v>30123</v>
@@ -7178,16 +7181,16 @@
         <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D238" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F238" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G238">
         <v>30123</v>
@@ -7201,16 +7204,16 @@
         <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D239" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E239" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G239">
         <v>40699</v>
@@ -7224,16 +7227,16 @@
         <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D240" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G240">
         <v>30123</v>
@@ -7247,16 +7250,16 @@
         <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D241" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E241" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F241" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G241">
         <v>27502</v>
@@ -7270,16 +7273,16 @@
         <v>246</v>
       </c>
       <c r="C242" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D242" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E242" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F242" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G242">
         <v>18510</v>
@@ -7293,16 +7296,16 @@
         <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D243" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E243" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F243" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G243">
         <v>27502</v>
@@ -7316,16 +7319,16 @@
         <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D244" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E244" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F244" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G244">
         <v>30123</v>
@@ -7339,16 +7342,16 @@
         <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D245" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E245" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F245" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G245">
         <v>20961</v>
@@ -7362,16 +7365,16 @@
         <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D246" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E246" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F246" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G246">
         <v>17445</v>
@@ -7385,16 +7388,16 @@
         <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D247" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E247" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F247" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G247">
         <v>27502</v>
@@ -7408,16 +7411,16 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D248" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F248" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G248">
         <v>30123</v>
@@ -7431,16 +7434,16 @@
         <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D249" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E249" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F249" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G249">
         <v>32736</v>
@@ -7454,16 +7457,16 @@
         <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D250" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E250" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F250" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G250">
         <v>7929</v>
@@ -7477,16 +7480,16 @@
         <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D251" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E251" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F251" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G251">
         <v>27502</v>
@@ -7500,16 +7503,16 @@
         <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D252" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E252" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F252" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G252">
         <v>40699</v>
@@ -7523,16 +7526,16 @@
         <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D253" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E253" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F253" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G253">
         <v>17445</v>
@@ -7546,16 +7549,16 @@
         <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D254" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E254" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F254" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G254">
         <v>90603</v>
@@ -7569,16 +7572,16 @@
         <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D255" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E255" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F255" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G255">
         <v>15322</v>
@@ -7592,10 +7595,10 @@
         <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D256" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E256" t="s">
         <v>445</v>
@@ -7615,16 +7618,16 @@
         <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D257" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E257" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F257" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G257">
         <v>13778</v>
@@ -7638,16 +7641,16 @@
         <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D258" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E258" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F258" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G258">
         <v>15322</v>
@@ -7661,16 +7664,16 @@
         <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D259" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E259" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F259" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G259">
         <v>40699</v>
@@ -7684,16 +7687,16 @@
         <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D260" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E260" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F260" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G260">
         <v>20961</v>
@@ -7707,16 +7710,16 @@
         <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D261" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E261" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F261" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G261">
         <v>90603</v>
@@ -7730,16 +7733,16 @@
         <v>266</v>
       </c>
       <c r="C262" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D262" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E262" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F262" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G262">
         <v>27502</v>
@@ -7753,16 +7756,16 @@
         <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D263" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E263" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F263" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G263">
         <v>28960</v>
@@ -7776,16 +7779,16 @@
         <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D264" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E264" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F264" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G264">
         <v>18510</v>
@@ -7799,16 +7802,16 @@
         <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D265" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E265" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F265" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G265">
         <v>13584</v>
@@ -7822,16 +7825,16 @@
         <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D266" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E266" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F266" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G266">
         <v>28960</v>
@@ -7845,16 +7848,16 @@
         <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D267" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E267" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F267" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G267">
         <v>7929</v>
@@ -7868,16 +7871,16 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D268" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E268" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F268" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G268">
         <v>90603</v>
@@ -7891,16 +7894,16 @@
         <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D269" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E269" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F269" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G269">
         <v>28960</v>
@@ -7914,16 +7917,16 @@
         <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D270" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E270" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F270" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G270">
         <v>90603</v>
@@ -7937,16 +7940,16 @@
         <v>275</v>
       </c>
       <c r="C271" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D271" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E271" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F271" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G271">
         <v>90603</v>
@@ -7960,16 +7963,16 @@
         <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D272" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E272" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F272" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G272">
         <v>90603</v>
@@ -7983,16 +7986,16 @@
         <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D273" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E273" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F273" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G273">
         <v>4286</v>
@@ -8006,16 +8009,16 @@
         <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D274" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E274" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F274" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G274">
         <v>28960</v>
@@ -8029,16 +8032,16 @@
         <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D275" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E275" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F275" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G275">
         <v>4286</v>
@@ -8052,16 +8055,16 @@
         <v>280</v>
       </c>
       <c r="C276" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D276" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E276" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F276" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G276">
         <v>18510</v>
@@ -8075,16 +8078,16 @@
         <v>281</v>
       </c>
       <c r="C277" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D277" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E277" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F277" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G277">
         <v>15322</v>
@@ -8098,16 +8101,16 @@
         <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D278" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E278" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F278" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G278">
         <v>15322</v>
@@ -8121,16 +8124,16 @@
         <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D279" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E279" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F279" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G279">
         <v>27502</v>
@@ -8144,16 +8147,16 @@
         <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D280" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E280" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F280" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G280">
         <v>7272</v>
@@ -8167,16 +8170,16 @@
         <v>285</v>
       </c>
       <c r="C281" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D281" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E281" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F281" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G281">
         <v>17445</v>
@@ -8190,16 +8193,16 @@
         <v>286</v>
       </c>
       <c r="C282" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D282" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E282" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F282" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G282">
         <v>7272</v>
@@ -8213,16 +8216,16 @@
         <v>287</v>
       </c>
       <c r="C283" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D283" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E283" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F283" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G283">
         <v>32736</v>
@@ -8236,16 +8239,16 @@
         <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D284" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E284" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F284" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G284">
         <v>40699</v>
@@ -8259,16 +8262,16 @@
         <v>289</v>
       </c>
       <c r="C285" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D285" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E285" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F285" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G285">
         <v>13584</v>
@@ -8282,16 +8285,16 @@
         <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D286" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E286" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F286" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G286">
         <v>18510</v>
@@ -8305,16 +8308,16 @@
         <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D287" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E287" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F287" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G287">
         <v>18510</v>
@@ -8328,16 +8331,16 @@
         <v>292</v>
       </c>
       <c r="C288" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D288" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E288" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F288" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G288">
         <v>30123</v>
@@ -8351,16 +8354,16 @@
         <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D289" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E289" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F289" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G289">
         <v>27502</v>
@@ -8374,16 +8377,16 @@
         <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D290" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E290" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F290" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G290">
         <v>32736</v>
@@ -8397,16 +8400,16 @@
         <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D291" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E291" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F291" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G291">
         <v>27502</v>
@@ -8420,16 +8423,16 @@
         <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D292" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E292" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F292" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G292">
         <v>27502</v>
@@ -8443,16 +8446,16 @@
         <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D293" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E293" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F293" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G293">
         <v>18510</v>
@@ -8466,16 +8469,16 @@
         <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D294" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E294" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F294" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G294">
         <v>27502</v>
@@ -8489,16 +8492,16 @@
         <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D295" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E295" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F295" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G295">
         <v>32736</v>
@@ -8512,16 +8515,16 @@
         <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D296" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E296" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F296" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G296">
         <v>7272</v>
@@ -8535,16 +8538,16 @@
         <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D297" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E297" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F297" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G297">
         <v>40699</v>
@@ -8558,16 +8561,16 @@
         <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D298" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E298" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F298" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G298">
         <v>3212</v>
@@ -8581,16 +8584,16 @@
         <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D299" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E299" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F299" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G299">
         <v>5596</v>
@@ -8604,16 +8607,16 @@
         <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D300" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E300" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F300" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G300">
         <v>7156</v>
@@ -8627,16 +8630,16 @@
         <v>305</v>
       </c>
       <c r="C301" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D301" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E301" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F301" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G301">
         <v>30123</v>
@@ -8650,16 +8653,16 @@
         <v>306</v>
       </c>
       <c r="C302" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D302" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E302" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F302" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G302">
         <v>28960</v>
@@ -8673,16 +8676,16 @@
         <v>307</v>
       </c>
       <c r="C303" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D303" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E303" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F303" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G303">
         <v>5700</v>
@@ -8696,16 +8699,16 @@
         <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D304" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E304" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F304" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G304">
         <v>30123</v>
@@ -8719,16 +8722,16 @@
         <v>309</v>
       </c>
       <c r="C305" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D305" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E305" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F305" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G305">
         <v>20961</v>
@@ -8742,16 +8745,16 @@
         <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D306" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E306" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F306" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G306">
         <v>30123</v>
@@ -8765,16 +8768,16 @@
         <v>311</v>
       </c>
       <c r="C307" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D307" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E307" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F307" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G307">
         <v>13584</v>
@@ -8788,16 +8791,16 @@
         <v>312</v>
       </c>
       <c r="C308" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D308" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E308" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F308" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G308">
         <v>7460</v>
@@ -8811,16 +8814,16 @@
         <v>313</v>
       </c>
       <c r="C309" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D309" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E309" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F309" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G309">
         <v>7272</v>
@@ -8834,16 +8837,16 @@
         <v>314</v>
       </c>
       <c r="C310" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D310" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E310" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F310" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G310">
         <v>30123</v>
@@ -8857,10 +8860,10 @@
         <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D311" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E311" t="s">
         <v>445</v>
@@ -8880,16 +8883,16 @@
         <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D312" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E312" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F312" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G312">
         <v>40699</v>
@@ -8903,16 +8906,16 @@
         <v>317</v>
       </c>
       <c r="C313" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D313" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E313" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F313" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G313">
         <v>90603</v>
@@ -8926,16 +8929,16 @@
         <v>318</v>
       </c>
       <c r="C314" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D314" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E314" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F314" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G314">
         <v>27502</v>
@@ -8949,16 +8952,16 @@
         <v>319</v>
       </c>
       <c r="C315" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D315" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E315" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F315" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G315">
         <v>90603</v>
@@ -8972,16 +8975,16 @@
         <v>320</v>
       </c>
       <c r="C316" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D316" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E316" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F316" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G316">
         <v>15322</v>
@@ -8995,16 +8998,16 @@
         <v>321</v>
       </c>
       <c r="C317" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D317" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E317" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F317" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G317">
         <v>30123</v>
@@ -9018,16 +9021,16 @@
         <v>322</v>
       </c>
       <c r="C318" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D318" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E318" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F318" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G318">
         <v>90603</v>
@@ -9041,16 +9044,16 @@
         <v>323</v>
       </c>
       <c r="C319" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D319" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E319" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F319" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G319">
         <v>28960</v>
@@ -9064,16 +9067,16 @@
         <v>324</v>
       </c>
       <c r="C320" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D320" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E320" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F320" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G320">
         <v>15322</v>
@@ -9087,16 +9090,16 @@
         <v>325</v>
       </c>
       <c r="C321" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D321" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E321" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F321" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G321">
         <v>5596</v>
@@ -9110,16 +9113,16 @@
         <v>326</v>
       </c>
       <c r="C322" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D322" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E322" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F322" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G322">
         <v>1484</v>
@@ -9133,16 +9136,16 @@
         <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D323" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E323" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F323" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G323">
         <v>90603</v>
@@ -9156,16 +9159,16 @@
         <v>328</v>
       </c>
       <c r="C324" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D324" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E324" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F324" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G324">
         <v>5891</v>
@@ -9179,16 +9182,16 @@
         <v>329</v>
       </c>
       <c r="C325" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D325" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E325" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F325" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G325">
         <v>27502</v>
@@ -9202,16 +9205,16 @@
         <v>330</v>
       </c>
       <c r="C326" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D326" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E326" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F326" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G326">
         <v>27502</v>
@@ -9225,16 +9228,16 @@
         <v>331</v>
       </c>
       <c r="C327" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D327" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E327" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F327" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G327">
         <v>32736</v>
@@ -9248,16 +9251,16 @@
         <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D328" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E328" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F328" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G328">
         <v>90603</v>
@@ -9271,16 +9274,16 @@
         <v>333</v>
       </c>
       <c r="C329" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D329" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E329" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F329" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G329">
         <v>27502</v>
@@ -9294,16 +9297,16 @@
         <v>334</v>
       </c>
       <c r="C330" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D330" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E330" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F330" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G330">
         <v>90603</v>
@@ -9317,16 +9320,16 @@
         <v>335</v>
       </c>
       <c r="C331" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D331" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E331" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F331" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G331">
         <v>27502</v>
@@ -9340,16 +9343,16 @@
         <v>336</v>
       </c>
       <c r="C332" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D332" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E332" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F332" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G332">
         <v>5596</v>
@@ -9363,16 +9366,16 @@
         <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D333" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E333" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F333" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G333">
         <v>30123</v>
@@ -9386,16 +9389,16 @@
         <v>338</v>
       </c>
       <c r="C334" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D334" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E334" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F334" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G334">
         <v>40699</v>
@@ -9409,16 +9412,16 @@
         <v>339</v>
       </c>
       <c r="C335" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D335" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E335" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F335" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G335">
         <v>30123</v>
@@ -9432,16 +9435,16 @@
         <v>340</v>
       </c>
       <c r="C336" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D336" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E336" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F336" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G336">
         <v>7929</v>
@@ -9455,16 +9458,16 @@
         <v>341</v>
       </c>
       <c r="C337" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D337" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E337" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F337" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G337">
         <v>30123</v>
@@ -9478,16 +9481,16 @@
         <v>342</v>
       </c>
       <c r="C338" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D338" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E338" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F338" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G338">
         <v>30123</v>
@@ -9501,16 +9504,16 @@
         <v>343</v>
       </c>
       <c r="C339" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D339" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E339" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F339" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G339">
         <v>5700</v>
@@ -9524,16 +9527,16 @@
         <v>344</v>
       </c>
       <c r="C340" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D340" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E340" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F340" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G340">
         <v>90603</v>
@@ -9547,16 +9550,16 @@
         <v>345</v>
       </c>
       <c r="C341" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D341" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E341" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F341" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G341">
         <v>28960</v>
@@ -9570,16 +9573,16 @@
         <v>346</v>
       </c>
       <c r="C342" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D342" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E342" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F342" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G342">
         <v>15322</v>
@@ -9593,16 +9596,16 @@
         <v>347</v>
       </c>
       <c r="C343" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D343" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E343" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F343" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G343">
         <v>32736</v>
@@ -9616,16 +9619,16 @@
         <v>348</v>
       </c>
       <c r="C344" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D344" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E344" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F344" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G344">
         <v>7272</v>
@@ -9639,16 +9642,16 @@
         <v>349</v>
       </c>
       <c r="C345" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D345" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E345" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F345" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G345">
         <v>7460</v>
@@ -9662,16 +9665,16 @@
         <v>350</v>
       </c>
       <c r="C346" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D346" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E346" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F346" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G346">
         <v>15322</v>
@@ -9685,16 +9688,16 @@
         <v>351</v>
       </c>
       <c r="C347" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D347" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E347" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F347" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G347">
         <v>15322</v>
@@ -9708,16 +9711,16 @@
         <v>352</v>
       </c>
       <c r="C348" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D348" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E348" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F348" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G348">
         <v>7929</v>
@@ -9731,16 +9734,16 @@
         <v>353</v>
       </c>
       <c r="C349" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D349" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E349" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F349" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G349">
         <v>15322</v>
@@ -9754,16 +9757,16 @@
         <v>354</v>
       </c>
       <c r="C350" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D350" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E350" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F350" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G350">
         <v>90603</v>
@@ -9777,16 +9780,16 @@
         <v>355</v>
       </c>
       <c r="C351" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D351" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E351" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F351" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G351">
         <v>7929</v>
@@ -9800,16 +9803,16 @@
         <v>356</v>
       </c>
       <c r="C352" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D352" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E352" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F352" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G352">
         <v>30123</v>
@@ -9823,16 +9826,16 @@
         <v>357</v>
       </c>
       <c r="C353" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D353" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E353" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F353" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G353">
         <v>32736</v>
@@ -9846,16 +9849,16 @@
         <v>358</v>
       </c>
       <c r="C354" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D354" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E354" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F354" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G354">
         <v>40699</v>
@@ -9869,16 +9872,16 @@
         <v>359</v>
       </c>
       <c r="C355" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D355" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E355" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F355" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G355">
         <v>5596</v>
@@ -9892,16 +9895,16 @@
         <v>360</v>
       </c>
       <c r="C356" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D356" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E356" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F356" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G356">
         <v>17445</v>
@@ -9915,10 +9918,10 @@
         <v>361</v>
       </c>
       <c r="C357" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D357" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E357" t="s">
         <v>445</v>
@@ -9938,16 +9941,16 @@
         <v>362</v>
       </c>
       <c r="C358" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D358" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E358" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F358" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G358">
         <v>30123</v>
@@ -9961,16 +9964,16 @@
         <v>363</v>
       </c>
       <c r="C359" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D359" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E359" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F359" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G359">
         <v>30123</v>
@@ -9984,16 +9987,16 @@
         <v>364</v>
       </c>
       <c r="C360" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D360" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E360" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F360" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G360">
         <v>90603</v>
@@ -10007,16 +10010,16 @@
         <v>365</v>
       </c>
       <c r="C361" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D361" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E361" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F361" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G361">
         <v>90603</v>
@@ -10030,16 +10033,16 @@
         <v>366</v>
       </c>
       <c r="C362" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D362" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E362" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F362" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G362">
         <v>28960</v>
@@ -10053,16 +10056,16 @@
         <v>367</v>
       </c>
       <c r="C363" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D363" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E363" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F363" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G363">
         <v>32736</v>
@@ -10076,16 +10079,16 @@
         <v>368</v>
       </c>
       <c r="C364" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D364" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E364" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F364" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G364">
         <v>27502</v>
@@ -10099,16 +10102,16 @@
         <v>369</v>
       </c>
       <c r="C365" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D365" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E365" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F365" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G365">
         <v>7272</v>
@@ -10122,16 +10125,16 @@
         <v>370</v>
       </c>
       <c r="C366" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D366" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E366" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F366" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G366">
         <v>15322</v>
@@ -10145,16 +10148,16 @@
         <v>371</v>
       </c>
       <c r="C367" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D367" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E367" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F367" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G367">
         <v>15322</v>
@@ -10168,16 +10171,16 @@
         <v>372</v>
       </c>
       <c r="C368" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D368" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E368" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F368" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G368">
         <v>40699</v>
@@ -10191,16 +10194,16 @@
         <v>373</v>
       </c>
       <c r="C369" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D369" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E369" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F369" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G369">
         <v>40699</v>
@@ -10214,16 +10217,16 @@
         <v>374</v>
       </c>
       <c r="C370" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D370" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E370" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F370" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G370">
         <v>27502</v>
@@ -10237,16 +10240,16 @@
         <v>375</v>
       </c>
       <c r="C371" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D371" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E371" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F371" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G371">
         <v>15322</v>
@@ -10260,16 +10263,16 @@
         <v>376</v>
       </c>
       <c r="C372" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D372" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E372" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F372" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G372">
         <v>32736</v>
@@ -10283,16 +10286,16 @@
         <v>377</v>
       </c>
       <c r="C373" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D373" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E373" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F373" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G373">
         <v>90603</v>
@@ -10306,16 +10309,16 @@
         <v>378</v>
       </c>
       <c r="C374" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D374" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E374" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F374" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G374">
         <v>27502</v>
@@ -10329,16 +10332,16 @@
         <v>379</v>
       </c>
       <c r="C375" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="D375" s="2">
-        <v>43921.73919141278</v>
+        <v>43921.7930797958</v>
       </c>
       <c r="E375" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F375" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G375">
         <v>30123</v>
